--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>2.812176596276667</v>
+        <v>6.965580385691002</v>
       </c>
       <c r="R2">
-        <v>16.87305957766</v>
+        <v>41.793482314146</v>
       </c>
       <c r="S2">
-        <v>0.1228959905835593</v>
+        <v>0.3678695155079236</v>
       </c>
       <c r="T2">
-        <v>0.1005743794298733</v>
+        <v>0.3680643459349111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,90 +620,90 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>1.858191602386166</v>
+        <v>2.691630814552334</v>
       </c>
       <c r="R3">
-        <v>11.149149614317</v>
+        <v>16.149784887314</v>
       </c>
       <c r="S3">
-        <v>0.08120553238785025</v>
+        <v>0.1421516756463845</v>
       </c>
       <c r="T3">
-        <v>0.06645616335731863</v>
+        <v>0.1422269617750134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>29.48083233333334</v>
+        <v>0.132963</v>
       </c>
       <c r="H4">
-        <v>88.442497</v>
+        <v>0.265926</v>
       </c>
       <c r="I4">
-        <v>0.3670116098006381</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J4">
-        <v>0.3670116098006381</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>3.727802113829445</v>
+        <v>0.0216881932635</v>
       </c>
       <c r="R4">
-        <v>33.550219024465</v>
+        <v>0.08675277305399999</v>
       </c>
       <c r="S4">
-        <v>0.1629100868292285</v>
+        <v>0.001145407088327569</v>
       </c>
       <c r="T4">
-        <v>0.1999810670134462</v>
+        <v>0.0007640091445874233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H5">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I5">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J5">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,60 +744,60 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>0.02290701819333333</v>
+        <v>0.0083807243715</v>
       </c>
       <c r="R5">
-        <v>0.13744210916</v>
+        <v>0.033522897486</v>
       </c>
       <c r="S5">
-        <v>0.001001068245825182</v>
+        <v>0.0004426067669080974</v>
       </c>
       <c r="T5">
-        <v>0.00081924411946022</v>
+        <v>0.0002952274530340196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2401406666666667</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H6">
-        <v>0.720422</v>
+        <v>26.777106</v>
       </c>
       <c r="I6">
-        <v>0.0029895496726624</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J6">
-        <v>0.0029895496726624</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,104 +806,104 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N6">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O6">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P6">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q6">
-        <v>0.01513618629033333</v>
+        <v>1.455911418879</v>
       </c>
       <c r="R6">
-        <v>0.09081711774199999</v>
+        <v>8.735468513274</v>
       </c>
       <c r="S6">
-        <v>0.0006614721885783013</v>
+        <v>0.07689028029677097</v>
       </c>
       <c r="T6">
-        <v>0.0005413289283115357</v>
+        <v>0.07693100279621684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2401406666666667</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H7">
-        <v>0.720422</v>
+        <v>26.777106</v>
       </c>
       <c r="I7">
-        <v>0.0029895496726624</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J7">
-        <v>0.0029895496726624</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N7">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O7">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P7">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q7">
-        <v>0.03036538706555555</v>
+        <v>0.562591459911</v>
       </c>
       <c r="R7">
-        <v>0.27328848359</v>
+        <v>3.375548759466</v>
       </c>
       <c r="S7">
-        <v>0.001327009238258916</v>
+        <v>0.0297118454352349</v>
       </c>
       <c r="T7">
-        <v>0.001628976624890644</v>
+        <v>0.02972758137226884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.60572933333333</v>
+        <v>31.96682866666667</v>
       </c>
       <c r="H8">
-        <v>151.817188</v>
+        <v>95.900486</v>
       </c>
       <c r="I8">
-        <v>0.6299988405266995</v>
+        <v>0.3817886692584505</v>
       </c>
       <c r="J8">
-        <v>0.6299988405266996</v>
+        <v>0.3819908715239683</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,42 +930,42 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N8">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O8">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P8">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q8">
-        <v>4.827280521106666</v>
+        <v>5.214253274549</v>
       </c>
       <c r="R8">
-        <v>28.96368312664</v>
+        <v>31.285519647294</v>
       </c>
       <c r="S8">
-        <v>0.2109588075839882</v>
+        <v>0.2753776023867763</v>
       </c>
       <c r="T8">
-        <v>0.1726423381045924</v>
+        <v>0.2755234474040829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.60572933333333</v>
+        <v>31.96682866666667</v>
       </c>
       <c r="H9">
-        <v>151.817188</v>
+        <v>95.900486</v>
       </c>
       <c r="I9">
-        <v>0.6299988405266995</v>
+        <v>0.3817886692584505</v>
       </c>
       <c r="J9">
-        <v>0.6299988405266996</v>
+        <v>0.3819908715239683</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,90 +992,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N9">
         <v>0.126061</v>
       </c>
       <c r="O9">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P9">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q9">
-        <v>3.189704422744666</v>
+        <v>2.014885194274334</v>
       </c>
       <c r="R9">
-        <v>19.138226536468</v>
+        <v>12.089311165646</v>
       </c>
       <c r="S9">
-        <v>0.1393944765847842</v>
+        <v>0.1064110668716742</v>
       </c>
       <c r="T9">
-        <v>0.1140762437561748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H10">
-        <v>151.817188</v>
-      </c>
-      <c r="I10">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J10">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.379345</v>
-      </c>
-      <c r="O10">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P10">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q10">
-        <v>6.399010131317777</v>
-      </c>
-      <c r="R10">
-        <v>57.59109118185999</v>
-      </c>
-      <c r="S10">
-        <v>0.2796455563579271</v>
-      </c>
-      <c r="T10">
-        <v>0.3432802586659325</v>
+        <v>0.1064674241198854</v>
       </c>
     </row>
   </sheetData>
